--- a/nlp/dataset evaluation.xlsx
+++ b/nlp/dataset evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B39A40-15AA-4ADD-A04C-DAD96C07F63A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A8154A-D498-4CB7-AB8C-00CE7DAB3653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="610" windowWidth="14930" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8090" yWindow="490" windowWidth="14930" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" activeCellId="1" sqref="F24:G24 F30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,20 +1005,92 @@
       <c r="A25" t="s">
         <v>11</v>
       </c>
+      <c r="B25">
+        <v>0.69079999999999997</v>
+      </c>
+      <c r="C25">
+        <v>0.52659999999999996</v>
+      </c>
+      <c r="D25">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="G25">
+        <v>0.5262</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
+      <c r="B26">
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="C26">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="D26">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.69330000000000003</v>
+      </c>
+      <c r="G26">
+        <v>0.50009999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>13</v>
       </c>
+      <c r="B27">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="C27">
+        <v>0.53359999999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.6905</v>
+      </c>
+      <c r="E27">
+        <v>0.5333</v>
+      </c>
+      <c r="F27">
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.52859999999999996</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
+      </c>
+      <c r="B28">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="C28">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="E28">
+        <v>0.52029999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="G28">
+        <v>0.50739999999999996</v>
       </c>
     </row>
   </sheetData>
